--- a/medicine/Enfance/Colette_Meffre/Colette_Meffre.xlsx
+++ b/medicine/Enfance/Colette_Meffre/Colette_Meffre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colette Meffre, née Villedieu de Torcy le 3 janvier 1924 à Toulon et morte à Joigny le 1er mai 2015, est une femme de lettres française.
 Elle a édité des romans pour jeunes enfants dans la collection Rouge et Or des éditions G. P. .
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colette Villedieu de Torcy est la fille d'un officier de marine, Jean Villedieu de Torcy, et de son épouse Louise Asselin de Williencourt.
 Elle épouse, en 1942, Philippe Meffre, secrétaire général de la Continent West Africa Conference (COWAC) et fils de Jacques Meffre.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série Line et Lou
 Série de romans pour jeunes enfants dans laquelle Line et Lou sont un frère et une sœur jumeaux.
@@ -557,10 +573,7 @@
 Hors-série
 Romans pour jeunes enfants :
 L'Aigle dans la forêt, 1965
-La Bataille du vieux village, Presses de la Cité, 1968
-Parutions en allemand
-Li und Lou auf dem Lande, 1966
-Gute Reise, Li und Lou, 1967</t>
+La Bataille du vieux village, Presses de la Cité, 1968</t>
         </is>
       </c>
     </row>
@@ -585,10 +598,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parutions en allemand</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Li und Lou auf dem Lande, 1966
+Gute Reise, Li und Lou, 1967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colette_Meffre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colette_Meffre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Bulletin critique du livre français, Numéros 229 à 240 » (1965)
 « La Grande encyclopédie: Supplément - Volume 1 » (1981)</t>
